--- a/data/input/absenteeism_data_28.xlsx
+++ b/data/input/absenteeism_data_28.xlsx
@@ -476,272 +476,272 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71137</v>
+        <v>71469</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Murilo Moraes</t>
+          <t>Esther Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>10848.02</v>
+        <v>7010.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6850</v>
+        <v>24482</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kaique da Rosa</t>
+          <t>Ana Julia Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>3495.17</v>
+        <v>2667.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>85364</v>
+        <v>53091</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Gabriel Monteiro</t>
+          <t>Luiz Otávio da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>6861.33</v>
+        <v>11852.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24733</v>
+        <v>84539</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vitor Hugo Almeida</t>
+          <t>Maria Clara da Paz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>6012.45</v>
+        <v>6741.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91862</v>
+        <v>78128</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bryan Peixoto</t>
+          <t>Luiz Otávio Viana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>8524.299999999999</v>
+        <v>6918.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90255</v>
+        <v>74558</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Alícia Cardoso</t>
+          <t>Sr. Paulo Sales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45091</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>9481.290000000001</v>
+        <v>3804.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13661</v>
+        <v>6190</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lorenzo Santos</t>
+          <t>Carlos Eduardo Barros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>8512.540000000001</v>
+        <v>3098.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34177</v>
+        <v>99152</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Benjamin Duarte</t>
+          <t>Maria Cecília Jesus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>11883.05</v>
+        <v>10631.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95933</v>
+        <v>20227</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yasmin da Cunha</t>
+          <t>Samuel Fogaça</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45080</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>8583.59</v>
+        <v>12171.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>58661</v>
+        <v>17340</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isabel Gomes</t>
+          <t>Natália Nogueira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>6857.9</v>
+        <v>4603.06</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_28.xlsx
+++ b/data/input/absenteeism_data_28.xlsx
@@ -476,21 +476,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71469</v>
+        <v>66522</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esther Campos</t>
+          <t>Stephany Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -500,45 +500,45 @@
         <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>7010.87</v>
+        <v>7765.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>24482</v>
+        <v>58575</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Julia Barbosa</t>
+          <t>Thomas Moraes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>2667.38</v>
+        <v>5453.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>53091</v>
+        <v>68558</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Otávio da Cruz</t>
+          <t>Felipe Duarte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,55 +548,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>11852.88</v>
+        <v>5773.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84539</v>
+        <v>19854</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Clara da Paz</t>
+          <t>Sr. Davi Lucca Teixeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>6741.15</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>78128</v>
+        <v>33847</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Otávio Viana</t>
+          <t>Bryan Silva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>6918.88</v>
+        <v>11391.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74558</v>
+        <v>25463</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Paulo Sales</t>
+          <t>Alexia Pereira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,85 +639,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>3804.86</v>
+        <v>10105.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6190</v>
+        <v>20507</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Barros</t>
+          <t>Ana Carolina Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>3098.5</v>
+        <v>10082.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99152</v>
+        <v>85368</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Cecília Jesus</t>
+          <t>Helena Silveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>10631.7</v>
+        <v>6223.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20227</v>
+        <v>81519</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samuel Fogaça</t>
+          <t>Lorena Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>12171.26</v>
+        <v>7700.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17340</v>
+        <v>71119</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Natália Nogueira</t>
+          <t>Dra. Alícia Nogueira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>4603.06</v>
+        <v>5650.22</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_28.xlsx
+++ b/data/input/absenteeism_data_28.xlsx
@@ -476,248 +476,248 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66522</v>
+        <v>47215</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stephany Ribeiro</t>
+          <t>Dr. Kaique Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>7765.27</v>
+        <v>6110.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>58575</v>
+        <v>33160</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thomas Moraes</t>
+          <t>Lavínia Lopes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>5453.5</v>
+        <v>3045.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68558</v>
+        <v>61742</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Felipe Duarte</t>
+          <t>João Miguel Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>5773.76</v>
+        <v>3426.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19854</v>
+        <v>27180</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Davi Lucca Teixeira</t>
+          <t>Pedro Miguel Carvalho</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>9058</v>
+        <v>11995.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33847</v>
+        <v>67229</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bryan Silva</t>
+          <t>Laura Silva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45089</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>11391.62</v>
+        <v>6276.39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25463</v>
+        <v>26910</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alexia Pereira</t>
+          <t>Igor Sales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>10105.43</v>
+        <v>7098.69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20507</v>
+        <v>43852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Carolina Fogaça</t>
+          <t>Sra. Manuela Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>10082.31</v>
+        <v>10546.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85368</v>
+        <v>76510</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Helena Silveira</t>
+          <t>Bárbara Freitas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>6223.66</v>
+        <v>9959.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>81519</v>
+        <v>54655</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lorena Vieira</t>
+          <t>Srta. Ana Luiza Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>7700.17</v>
+        <v>8855</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71119</v>
+        <v>91506</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Alícia Nogueira</t>
+          <t>Breno Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>5650.22</v>
+        <v>8259.26</v>
       </c>
     </row>
   </sheetData>
